--- a/doc/BMP File Format.xlsx
+++ b/doc/BMP File Format.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DFE96B-5DD1-4FF2-9788-6C7F22BC85A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="5325" yWindow="3030" windowWidth="11055" windowHeight="7890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="File Header" sheetId="1" r:id="rId1"/>
     <sheet name="DIB Header" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="1">'DIB Header'!$F$1:$L$7</definedName>
+    <definedName name="DadosExternos_1" localSheetId="1">'DIB Header'!$C$1:$I$7</definedName>
     <definedName name="DadosExternos_1" localSheetId="0">'File Header'!$C$1:$E$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,15 +25,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Ligação" type="4" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Ligação" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="file://C:\Users\JCaetano\Documents\My Source Code\C#\Era8Bit\doc\BMP File Format.html" htmlTables="1">
       <tables count="1">
         <x v="1"/>
       </tables>
     </webPr>
   </connection>
-  <connection id="2" name="Ligação1" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Ligação1" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="file://C:\Users\JCaetano\Documents\My Source Code\C#\Era8Bit\doc\BMP File Format.html" htmlTables="1">
       <tables count="1">
         <x v="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>Microsoft Windows</t>
   </si>
@@ -75,12 +76,6 @@
     <t>FileType</t>
   </si>
   <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
     <t>ByteWidth</t>
   </si>
   <si>
@@ -91,9 +86,6 @@
   </si>
   <si>
     <t>The magic number used to identify the BMP file</t>
-  </si>
-  <si>
-    <t>The width of the bitmap in pixels</t>
   </si>
   <si>
     <t>The height of the bitmap scan lines</t>
@@ -191,12 +183,6 @@
 OS/2:  Y coordinate of hotspot</t>
   </si>
   <si>
-    <t>Reserved1</t>
-  </si>
-  <si>
-    <t>Reserved2</t>
-  </si>
-  <si>
     <t>BitmapOffset</t>
   </si>
   <si>
@@ -215,6 +201,12 @@
     <t>PT' (5450h) - OS/2 Pointer</t>
   </si>
   <si>
+    <t>BitsPerPixel</t>
+  </si>
+  <si>
+    <t>The number of color planes used to store the bitmap</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -224,7 +216,82 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2 bytes unsigned</t>
+      <t xml:space="preserve">2 bytes unsigned
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Must be one of:
+  * 'BM':  OS/2 Bitmap 
+  * 'BA': OS/2 Bitmap Array
+  * 'CI': OS/2 Color Icon
+  * 'CP': OS/2 Color Pointer
+  * 'IC': OS/2 B/W Icon
+  * 'PT': OS/2 B/W Pointer)</t>
+    </r>
+  </si>
+  <si>
+    <t>ReservedX</t>
+  </si>
+  <si>
+    <t>ReservedY</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 byte unsigned
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Must be one of:
+  * 1: 2 colors Bitmap (Hercules/MGA)
+  * 4: 16 colors Bitmap (CGA/EGA)
+  * 8: 256 colors Bitmap (VGA))</t>
+    </r>
+  </si>
+  <si>
+    <t>8 Bytes</t>
+  </si>
+  <si>
+    <t>12 Bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public ushort biPlanes;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Win1: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Width</t>
     </r>
     <r>
       <rPr>
@@ -235,7 +302,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+Other: </t>
     </r>
     <r>
       <rPr>
@@ -246,18 +313,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'BM'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:  OS/2 Bitmap 
-</t>
+      <t>Size</t>
+    </r>
+  </si>
+  <si>
+    <t>Win1: The width of the bitmap in pixels</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Win1: </t>
     </r>
     <r>
       <rPr>
@@ -268,18 +332,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'BA'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: OS/2 Bitmap Array
-</t>
+      <t>Height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Other: </t>
     </r>
     <r>
       <rPr>
@@ -290,186 +354,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'CI'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: OS/2 Color Icon
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'CP'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: OS/2 Color Pointer
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'IC'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: OS/2 B/W Icon
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'PT'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: OS/2 B/W Pointer</t>
-    </r>
-  </si>
-  <si>
-    <t>BitsPerPixel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1 byte unsigned</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 2 colors Bitmap (Hercules/Monochrome)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 16 colors Bitmap (CGA/EGA)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 256 colors Bitmap (VGA)</t>
-    </r>
-  </si>
-  <si>
-    <t>The number of color planes used to store the bitmap</t>
+      <t>Width</t>
+    </r>
+  </si>
+  <si>
+    <t>1, 4, 8, or 24.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public ushort bcBitCount;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public ushort biHeight;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public ushort biWidth;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public uint biSize;</t>
+  </si>
+  <si>
+    <t>2 bytes unsigned
+(Must be one of:
+  * 1: 2 colors Bitmap (Hercules/MGA)
+  * 4: 16 colors Bitmap (CGA/EGA)
+  * 8: 256 colors Bitmap (VGA)
+  * 24: RGB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +400,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF161616"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -570,16 +492,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -606,6 +522,16 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,11 +550,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DadosExternos_1" growShrinkType="overwriteClear" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" growShrinkType="overwriteClear" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DadosExternos_1" growShrinkType="overwriteClear" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" growShrinkType="overwriteClear" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -893,11 +819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,137 +836,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="E8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1048,181 +974,216 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="2" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
